--- a/SendMail/SendMail/テスト仕様書_〇〇〇〇.xlsx
+++ b/SendMail/SendMail/テスト仕様書_〇〇〇〇.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infosys\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infosys\source\repos\AokiMasatoshi\OOP2021\SendMail\SendMail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCAC0EF-D044-4014-ACB0-86D26A675596}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8547B7-6144-43D9-8D04-B050750EB5CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11400" tabRatio="476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1443,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="74.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1698,7 +1698,9 @@
       <c r="E14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
@@ -1761,7 +1763,9 @@
       <c r="E17" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="20"/>
       <c r="I17" s="21" t="s">
